--- a/annonces.xlsx
+++ b/annonces.xlsx
@@ -483,17 +483,17 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>👉opportunité a EL AGba-Manouba (365m²)</t>
+          <t>Villa</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>330000000DT</t>
+          <t>600000DT</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>À Vendre</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -503,7 +503,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>330</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -519,20 +519,24 @@
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.tayara.tn/item/67dc933afd1c6385be39bdb9/Terrains%20et%20Fermes/La_Manouba/La_Manouba/opportunit_a_EL_AGbaManouba_365m/</t>
+          <t>https://www.tayara.tn/item/67e52c68ca3467b14e6dfa85/Maisons%20et%20Villas/Ariana/Les_Jardins_El_Menzah_2/Villa/</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Terrain à vendre</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr"/>
+          <t>A louer un Grand Studio meublé à Riadh el Andalous</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>1000DT</t>
+        </is>
+      </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>À Louer</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -542,7 +546,7 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>80</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -558,19 +562,19 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.tayara.tn/item/67dc92e3fd1c6385be39bd63/Terrains%20et%20Fermes/Ariana/La_Soukra/Terrain_vendre_/</t>
+          <t>https://www.tayara.tn/item/67dd68bdfd1c6385be3a3061/Appartements/Ariana/Riadh_Andalous/A_louer_un_Grand_Studio_meubl_Riadh_el_Andalous/</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Appartement s+1 Haut standing luxueux sité Ennasr jamais habité</t>
+          <t>à louer par jour s+1 appartement studio meublé location par jour / nuitée</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>1200DT</t>
+          <t>60DT</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -585,7 +589,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>65</t>
+          <t>111</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -601,20 +605,24 @@
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.tayara.tn/item/67dc9283ca3467b14e6946bb/Appartements/Ariana/Cit_Ennasr_2/Appartement_s1_Haut_standing_luxueux_sit_Ennasr_jamais_habit/</t>
+          <t>https://www.tayara.tn/item/67e5f44cca3467b14e6e790f/Appartements/Tunis/Manar/_louer_par_jour_s1_appartement_studio_meubl_location_par_jour_nuite_/</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Vente terrain Kalaa Kbira</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr"/>
+          <t>location appartement studio meublé a louer par jour / nuitée 📢 58616768</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>60DT</t>
+        </is>
+      </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>À Louer</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -624,7 +632,7 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>111</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
@@ -640,19 +648,19 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.tayara.tn/item/67dc9274fd1c6385be39bd0b/Terrains%20et%20Fermes/Sousse/Kala_Kebira/Vente_terrain_Kalaa_Kbira/</t>
+          <t>https://www.tayara.tn/item/67e5f3ebca3467b14e6e78e1/Appartements/Ariana/Les_Jardins_El_Menzah_2/location_appartement_studio_meubl_a_louer_par_jour_nuite_58616768/</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Appartement à louer chauffé résidence Tabarka le port de plaisance</t>
+          <t>☎️ 22333312 à louer appartement studio meublé location par jour nuitée tunis Ennasr شقة مفروشة s1 s2 s3</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>60DT</t>
+          <t>70DT</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -667,7 +675,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>111</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -683,14 +691,14 @@
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.tayara.tn/item/67dc90ddca3467b14e69452c/Locations%20de%20vacances/Jendouba/Tabarka/Appartement_louer_chauff_rsidence_Tabarka_le_port_de_plaisance_/</t>
+          <t>https://www.tayara.tn/item/67e5f342ca3467b14e6e7884/Appartements/Tunis/Menzah/_22333312_louer_appartement_studio_meubl_location_par_jour_nuite_tunis_Ennasr_s1_s2_s3/</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>studio meublé a laouina</t>
+          <t>à louer appartement studio meublé s1 ennasr location par jour nuitée</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -710,7 +718,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>57</t>
+          <t>111</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
@@ -726,19 +734,19 @@
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.tayara.tn/item/67dc8e6bca3467b14e6942f4/Appartements/Tunis/L_Aouina/studio_meubl_a_laouina_/</t>
+          <t>https://www.tayara.tn/item/67e5f327fd1c6385be3ef259/Locations%20de%20vacances/Tunis/El_Menzah_9/_louer_appartement_studio_meubl_s1_ennasr_location_par_jour_nuite_/</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Appartement à l'Aouina S+2</t>
+          <t>location app s+2 haut standing a côté MG Elmourouj 6</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>1050DT</t>
+          <t>850DT</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -769,24 +777,24 @@
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.tayara.tn/item/67dc8e4eca3467b14e6942df/Appartements/Tunis/L_Aouina/Appartement_lAouina_S2/</t>
+          <t>https://www.tayara.tn/item/67e5f1f5ca3467b14e6e77e0/Appartements/Ben_Arous/El_Mourouj_6/location_app_s2_haut_standing_a_ct_MG_Elmourouj_6/</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Appartements S3. A lariana</t>
+          <t>appartement studio location par jour nuitée</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>350000DT</t>
+          <t>60DT</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>À Vendre</t>
+          <t>À Louer</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -796,7 +804,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>80</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -812,19 +820,19 @@
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.tayara.tn/item/67dc8e35fd1c6385be39b957/Appartements/Ariana/Ariana_Ville/Appartements_S3_A_lariana_/</t>
+          <t>https://www.tayara.tn/item/67e5f187fd1c6385be3ef1a4/Locations%20de%20vacances/Tunis/Ain_Zaghouan_Sud/appartement_studio_location_par_jour_nuite_/</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>A louer villa de luxe, Manar 2 côté Manar City</t>
+          <t>appartement meublé studio location par jour nuitée</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>4500DT</t>
+          <t>60DT</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -839,7 +847,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>530</t>
+          <t>80</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -855,24 +863,24 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.tayara.tn/item/67dc8df0ca3467b14e6942a3/Maisons%20et%20Villas/Tunis/El_Manar_2/A_louer_villa_de_luxe_Manar_2_ct_Manar_City/</t>
+          <t>https://www.tayara.tn/item/67e5f151ca3467b14e6e77a5/Locations%20de%20vacances/Tunis/Ain_Zaghouen/appartement_meubl_studio_location_par_jour_nuite_/</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>A vendre boutique centre X El menzah 9A</t>
+          <t>appartement meublé studio location par jour nuitée</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>45000DT</t>
+          <t>60DT</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>À Vendre</t>
+          <t>À Louer</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -882,7 +890,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>80</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -898,24 +906,24 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://www.tayara.tn/item/67dc8dd5fd1c6385be39b910/Magasins%2C%20Commerces%20et%20Locaux%20industriels/Tunis/El_Menzah_9/A_vendre_boutique_centre_X_El_menzah_9A/</t>
+          <t>https://www.tayara.tn/item/67e5f13afd1c6385be3ef182/Locations%20de%20vacances/Tunis/L_Aouina/appartement_meubl_studio_location_par_jour_nuite_/</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>A vendre un Terrain à Carthage 400m2 côté cimetière américain</t>
+          <t>appartement meublé studio location par jour nuitée</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>600000DT</t>
+          <t>70DT</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>À Louer</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -925,7 +933,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>80</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -941,24 +949,24 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://www.tayara.tn/item/67dc8dc5fd1c6385be39b903/Terrains%20et%20Fermes/Tunis/Carthage/A_vendre_un_Terrain_Carthage_400m2_ct_cimetire_amricain/</t>
+          <t>https://www.tayara.tn/item/67e5f125ca3467b14e6e778a/Locations%20de%20vacances/Tunis/L_Aouina/appartement_meubl_studio_location_par_jour_nuite_/</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>terrain a vendre garman Sahb djabal 500 m2</t>
+          <t>appartement meublé studio location par jour nuitée</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>150DT</t>
+          <t>70DT</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>À Louer</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -968,7 +976,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>70</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -984,24 +992,24 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://www.tayara.tn/item/67dc8b1fca3467b14e694081/Terrains%20et%20Fermes/Nabeul/El_Haouaria/terrain_a_vendre_garman_Sahb_djabal_500_m2/</t>
+          <t>https://www.tayara.tn/item/67e5f110ca3467b14e6e7782/Locations%20de%20vacances/Tunis/Lac_2/appartement_meubl_studio_location_par_jour_nuite_/</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Appartement S+3 au quatrième étage</t>
+          <t>📍ENNASR 2 : APPARTEMENT S+1 À LOUER</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>100000DT</t>
+          <t>800DT</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>À Vendre</t>
+          <t>À Louer</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1011,7 +1019,7 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>0</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -1027,19 +1035,19 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://www.tayara.tn/item/67d81e4afd1c6385be37269e/Appartements/Sousse/Sousse_Riadh/Appartement_S3_au_quatrime_tage_/</t>
+          <t>https://www.tayara.tn/item/67e5f01cfd1c6385be3ef117/Appartements/Ariana/Cit_Ennasr_2/ENNASR_2_APPARTEMENT_S1_LOUER/</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>App Khaznadar(S+2)</t>
+          <t>A louer un appartement en S+2 à Ennasr</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>800DT</t>
+          <t>1200DT</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1054,7 +1062,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>120</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -1070,20 +1078,24 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>https://www.tayara.tn/item/67aa5be986d5f7a45c172592/Appartements/Tunis/Le_Bardo/App_KhaznadarS2/</t>
+          <t>https://www.tayara.tn/item/67d16c3fc68ce6b5539c4213/Appartements/Ariana/Cit_Ennasr_2/A_louer_un_appartement_en_S2_Ennasr_/</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>terrain fyeh 190 fi Hay fete7</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr"/>
+          <t>A vendre un S+2 à SAHLOUL ghrabi 210,000 tnd</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>210000DT</t>
+        </is>
+      </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>À Vendre</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -1093,7 +1105,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>100</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -1109,21 +1121,17 @@
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://www.tayara.tn/item/67dc8764fd1c6385be39b454/Terrains%20et%20Fermes/Bizerte/Menzel_Bourguiba/terrain_fyeh_190_fi_Hay_fete7_/</t>
+          <t>https://www.tayara.tn/item/67e54512ca3467b14e6e0d1d/Appartements/Sousse/Hammam_Sousse/A_vendre_un_S2_SAHLOUL_ghrabi_210000_tnd_/</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A LOUER</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>450DT</t>
-        </is>
-      </c>
+          <t>A LOUER VILLA LAC 2</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr"/>
       <c r="C17" t="inlineStr">
         <is>
           <t>À Louer</t>
@@ -1136,7 +1144,7 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>103</t>
+          <t>700</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
@@ -1152,19 +1160,19 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://www.tayara.tn/item/67dc874dfd1c6385be39b442/Maisons%20et%20Villas/Tunis/El_Omrane_Suprieur/A_LOUER/</t>
+          <t>https://www.tayara.tn/item/67e5edacca3467b14e6e75f2/Maisons%20et%20Villas/Tunis/Lac_2/A_LOUER_VILLA_LAC_2/</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>a louer studio 3arbi fi carthage mohamed ali</t>
+          <t>A LOUER APPAREMMENT</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>350DT</t>
+          <t>1200DT</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1179,7 +1187,7 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>60</t>
+          <t>150</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
@@ -1195,19 +1203,19 @@
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://www.tayara.tn/item/67dc8509fd1c6385be39b27d/Appartements/Tunis/Carthage/a_louer_studio_3arbi_fi_carthage_mohamed_ali/</t>
+          <t>https://www.tayara.tn/item/67e5ec8ffd1c6385be3eef69/Appartements/Tunis/L_Aouina/A_LOUER_APPAREMMENT_/</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Centre Esthétique Ennasr 2</t>
+          <t>A louer S+2 HST au jardin de Carthage (non meublé)</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2100DT</t>
+          <t>1360DT</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1222,7 +1230,7 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
@@ -1238,24 +1246,24 @@
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://www.tayara.tn/item/67dc8441fd1c6385be39b1d9/Magasins%2C%20Commerces%20et%20Locaux%20industriels/Ariana/Cit_Ennasr_2/Centre_Esthtique_Ennasr_2/</t>
+          <t>https://www.tayara.tn/item/67e5ea72ca3467b14e6e745f/Appartements/Tunis/Jardins_De_Carthage/A_louer_S2_HST_au_jardin_de_Carthage_non_meubl_/</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Centre Esthétique Ennasr 1</t>
+          <t>200m2 à yassmin et hammamet</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2000DT</t>
+          <t>75DT</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>À Louer</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1265,7 +1273,7 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>160</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
@@ -1281,24 +1289,20 @@
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://www.tayara.tn/item/67dc8420fd1c6385be39b1c0/Magasins%2C%20Commerces%20et%20Locaux%20industriels/Ariana/Ennasr/Centre_Esthtique_Ennasr_1/</t>
+          <t>https://www.tayara.tn/item/67e5ea62fd1c6385be3eee51/Terrains%20et%20Fermes/Nabeul/Hammamet/200m2_yassmin_et_hammamet/</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Bureau 1 pièce meublé Menzah 5</t>
-        </is>
-      </c>
-      <c r="B21" t="inlineStr">
-        <is>
-          <t>600DT</t>
-        </is>
-      </c>
+          <t>S+4 à El Manar II</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
-          <t>À Louer</t>
+          <t>À Vendre</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1308,7 +1312,7 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>140</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
@@ -1324,19 +1328,19 @@
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://www.tayara.tn/item/67dc83ffca3467b14e693ae2/Bureaux%20et%20Plateaux/Ariana/El_Menzah_5/Bureau_1_pice_meubl_Menzah_5/</t>
+          <t>https://www.tayara.tn/item/67e5ea2bca3467b14e6e743c/Appartements/Tunis/El_Manar_2/S4_El_Manar_II/</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Bureau Centre Galaxy Lafayette</t>
+          <t>Appartement s+3 meublé</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>450DT</t>
+          <t>2500DT</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1351,7 +1355,7 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>150</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
@@ -1367,24 +1371,24 @@
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://www.tayara.tn/item/67dc83dfca3467b14e693ad4/Bureaux%20et%20Plateaux/Tunis/Centre_Ville_Lafayette/Bureau_Centre_Galaxy_Lafayette/</t>
+          <t>https://www.tayara.tn/item/67c57981119f0ab09bcec391/Appartements/Tunis/El_Menzah_9/Appartement_s3_meubl/</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Bureau Titré Prés Banque Centrale</t>
+          <t>S+2 meublé en location à La Soukra</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>220000DT</t>
+          <t>1300DT</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>À Vendre</t>
+          <t>À Louer</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1394,7 +1398,7 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>82</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
@@ -1410,24 +1414,24 @@
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://www.tayara.tn/item/67dc8386ca3467b14e693a9a/Bureaux%20et%20Plateaux/Tunis/Tunis/Bureau_Titr_Prs_Banque_Centrale/</t>
+          <t>https://www.tayara.tn/item/67e5409eca3467b14e6e09b3/Appartements/Ariana/La_Soukra/S2_meubl_en_location_La_Soukra/</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Local Commercial Menzah 5</t>
+          <t>Terrain viabilisé</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2200DT</t>
+          <t>876000DT</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>À Louer</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1437,7 +1441,7 @@
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>50</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
@@ -1453,24 +1457,24 @@
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://www.tayara.tn/item/67dc82cafd1c6385be39b0c2/Magasins%2C%20Commerces%20et%20Locaux%20industriels/Ariana/El_Menzah_5/Local_Commercial_Menzah_5/</t>
+          <t>https://www.tayara.tn/item/66e4805567b755ba92257eb7/Terrains%20et%20Fermes/Ariana/Les_Jardins_El_Menzah_2/Terrain_viabilis/</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Terain mahdia plage</t>
+          <t>Villa individuelle</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>75DT</t>
+          <t>1700000DT</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>À Vendre</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1480,7 +1484,7 @@
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>1000</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
@@ -1496,24 +1500,24 @@
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://www.tayara.tn/item/67dc82a7ca3467b14e693a15/Terrains%20et%20Fermes/Mahdia/Mahdia/Terain_mahdia_plage/</t>
+          <t>https://www.tayara.tn/item/671244401cde9a414faa002a/Maisons%20et%20Villas/Ariana/Les_Jardins_El_Menzah_2/Villa_individuelle_/</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Parapharmacie Kélibia</t>
+          <t>Un terrain viabilisé</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>123456789DT</t>
+          <t>430000DT</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>À Vendre</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1523,7 +1527,7 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
@@ -1539,24 +1543,24 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://www.tayara.tn/item/67dc82a4ca3467b14e693a10/Magasins%2C%20Commerces%20et%20Locaux%20industriels/Nabeul/Klibia/Parapharmacie_Klibia/</t>
+          <t>https://www.tayara.tn/item/6751ead2041535433b445d09/Terrains%20et%20Fermes/Ariana/Les_Jardins_El_Menzah_2/Un_terrain_viabilis/</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Dépôt 150 m² Cité La Gazelle</t>
+          <t>Appartement s+3 rénové</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>800DT</t>
+          <t>455000DT</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>À Louer</t>
+          <t>À Vendre</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1582,24 +1586,24 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://www.tayara.tn/item/67dc8262ca3467b14e6939df/Magasins%2C%20Commerces%20et%20Locaux%20industriels/Ariana/Ghazela/Dpt_150_m_Cit_La_Gazelle/</t>
+          <t>https://www.tayara.tn/item/67124c681cde9a414faa0851/Appartements/Ariana/Les_Jardins_El_Menzah_2/Appartement_s3_rnov/</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Belle villa Menzah 5</t>
+          <t>Duplex S+4, menzah 9 C</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2900DT</t>
+          <t>675000DT</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>À Louer</t>
+          <t>À Vendre</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1609,7 +1613,7 @@
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>180</t>
+          <t>230</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
@@ -1625,19 +1629,19 @@
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://www.tayara.tn/item/67dc821bfd1c6385be39b051/Maisons%20et%20Villas/Ariana/El_Menzah_5/Belle_villa_Menzah_5/</t>
+          <t>https://www.tayara.tn/item/67c84a4593928ac5bc170d4a/Appartements/Tunis/El_Menzah_9/Duplex_S4_menzah_9_C/</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Bureau Menzah 5</t>
+          <t>Duplex S+4</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>450DT</t>
+          <t>2200DT</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1652,7 +1656,7 @@
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>220</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
@@ -1668,24 +1672,24 @@
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://www.tayara.tn/item/67dc8002fd1c6385be39ae86/Bureaux%20et%20Plateaux/Ariana/El_Menzah_5/Bureau_Menzah_5/</t>
+          <t>https://www.tayara.tn/item/674dc8c7041535433b4297fc/Appartements/Ariana/Les_Jardins_El_Menzah_1/Duplex_S4/</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>terrain a vendre 142m²</t>
+          <t>Appartement s+2</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>55000DT</t>
+          <t>265000DT</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>À Vendre</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1695,7 +1699,7 @@
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>90</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
@@ -1711,24 +1715,24 @@
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://www.tayara.tn/item/67dc7f20fd1c6385be39add8/Terrains%20et%20Fermes/Nabeul/Hammamet/terrain_a_vendre_142m/</t>
+          <t>https://www.tayara.tn/item/67c59789119f0ab09bced9f2/Appartements/Ariana/Les_Jardins_El_Menzah_1/Appartement_s2_/</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Terrain à Ariana (344 M²)</t>
+          <t>Appartement s+3</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>128000000DT</t>
+          <t>365000DT</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>À Vendre</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1738,7 +1742,7 @@
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>150</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
@@ -1754,7 +1758,7 @@
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://www.tayara.tn/item/67dc7ee1fd1c6385be39ada2/Terrains%20et%20Fermes/Ariana/Ghazela/Terrain_Ariana_344_M/</t>
+          <t>https://www.tayara.tn/item/67c5964c93928ac5bc15a1c5/Appartements/Ariana/Les_Jardins_El_Menzah_1/Appartement_s3_/</t>
         </is>
       </c>
     </row>

--- a/annonces.xlsx
+++ b/annonces.xlsx
@@ -483,100 +483,116 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Villa</t>
+          <t>Terrain par Facilité plage mahdia</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>600000DT</t>
+          <t>75000DT</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>À Vendre</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>Mahdia</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>330</t>
-        </is>
-      </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr"/>
+          <t>Des lots de terrain plage khmara mahdia entre salakta et la chebba
+Surface 250 m2 300m2 480 m2 500 m2 600m2....
+Steg soned permis de batir R +2
+Facilité de paiement sur 2 ans
+Occasion en or</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>+21697317933</t>
+        </is>
+      </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-04-02 23:36:50</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>https://www.tayara.tn/item/67e52c68ca3467b14e6dfa85/Maisons%20et%20Villas/Ariana/Les_Jardins_El_Menzah_2/Villa/</t>
+          <t>https://www.tayara.tn/item/67edadd5fd1c6385be42e228/Terrains%20et%20Fermes/Mahdia/Ksour_Essef/Terrain_par_Facilit_plage_mahdia_/</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>A louer un Grand Studio meublé à Riadh el Andalous</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>1000DT</t>
-        </is>
-      </c>
+          <t>Local commercial à vendre</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr"/>
       <c r="C3" t="inlineStr">
         <is>
-          <t>À Louer</t>
+          <t>À Vendre</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Sfax</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>1</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr"/>
+          <t>Un Local Commercial face au Mall of Sfax situé dans une zone commerciale dynamique regroupant plusieurs sociétés spécialisées dans la vente d’articles sanitaires,quincailleries, des comptoirs de matériaux de construction(meuble,ceramique,carrelage,marbre...)
+✅Caractéristiques du Local : 
+🔶Surface Terrain : 1750 m² 
+🔶Surface Bâti: 1182 m² 
+🔶Étages: 2 étages, équipé d’un monte-charge, avec la possibilité de bâtir 5 étages supplémentaires. 
+🔶Façade: 37 mètres 
+✅Description des Espaces : 
+🔶 Rez-de-chaussée : 580 m² 
+🔶 Étage Supérieur : 602 m² 
+🔶 Parking : 900 m² 
+Pour toute information supplémentaire et pour organiser une visite du local à votre convenance, veuillez nous contacter : 
+☎️
+☎️</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>+21644115030</t>
+        </is>
+      </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-04-02 23:16:52</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>https://www.tayara.tn/item/67dd68bdfd1c6385be3a3061/Appartements/Ariana/Riadh_Andalous/A_louer_un_Grand_Studio_meubl_Riadh_el_Andalous/</t>
+          <t>https://www.tayara.tn/item/67eda94fca3467b14e7262d7/Magasins%2C%20Commerces%20et%20Locaux%20industriels/Sfax/Sfax/Local_commercial_vendre/</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>à louer par jour s+1 appartement studio meublé location par jour / nuitée</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>60DT</t>
-        </is>
-      </c>
+          <t>Usine à louer à El Agba</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr"/>
       <c r="C4" t="inlineStr">
         <is>
           <t>À Louer</t>
@@ -584,42 +600,56 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>La Manouba</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>1800</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
+          <t>RE/MAX Consultants vous propose à la location un bâtiment industriel de 3 600 m² ou 1 800 m²
+ Zone industrielle Agba
+ Rez-de-chaussée : 1 750 m² Hauteur sous plafond 6 m
+ Espace Bureautique: 200 m² Mezzanine 
+ Abri pour véhicules : 175 m²
+ Plateforme à l’étage : 1 800 m² Fonctionnel – Capacité 1 tonne/m²
+ Possibilité d’extension : 2ᵉ étage avec +1 800 m² supplémentaires
+ Équipements et installations :
+ Monte-charge, capacité 3 tonnes, dimensions 3 m x 2,5 m
+ 2 accès de chargement.
+ Accès poids lourds
+ Système de sécurité
+ Installations adaptées aux activités industrielles et logistiques
+Contactez-nous dès maintenant pour plus d’informations.
+Heithem Nacef</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>+21627008822</t>
+        </is>
+      </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-04-02 23:15:56</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>https://www.tayara.tn/item/67e5f44cca3467b14e6e790f/Appartements/Tunis/Manar/_louer_par_jour_s1_appartement_studio_meubl_location_par_jour_nuite_/</t>
+          <t>https://www.tayara.tn/item/67a20273ecbb2843cb3f53dc/Magasins%2C%20Commerces%20et%20Locaux%20industriels/La_Manouba/La_Manouba/Usine_louer_El_Agba_/</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>location appartement studio meublé a louer par jour / nuitée 📢 58616768</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>60DT</t>
-        </is>
-      </c>
+          <t>Bureau à louer au Centre Urbain Nord</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr"/>
       <c r="C5" t="inlineStr">
         <is>
           <t>À Louer</t>
@@ -627,85 +657,101 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>111</t>
-        </is>
-      </c>
+          <t>Tunis</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr"/>
       <c r="F5" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr"/>
+          <t>RE/MAX Consultants vous propose à la location un bureau au Centre Urbain Nord 
+ • Superficie : 500m2 
+ Composé comme suit 
+ • Un grand hall
+ • 15 grands bureaux
+ • 3 kitchenettes
+ • 7 salles d’eau
+ • 8 places de parking au sous-sol 
+Contactez-nous dès maintenant pour plus d’informations 
+Heithem Nacef ☎️</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>+21627008822</t>
+        </is>
+      </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-04-02 23:13:59</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>https://www.tayara.tn/item/67e5f3ebca3467b14e6e78e1/Appartements/Ariana/Les_Jardins_El_Menzah_2/location_appartement_studio_meubl_a_louer_par_jour_nuite_58616768/</t>
+          <t>https://www.tayara.tn/item/67b88e87bf049e957eac5c0c/Bureaux%20et%20Plateaux/Tunis/Centre_Urbain_Nord/_Bureau_louer_au_Centre_Urbain_Nord_/</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>☎️ 22333312 à louer appartement studio meublé location par jour nuitée tunis Ennasr شقة مفروشة s1 s2 s3</t>
+          <t>A Vendre appartement S+1 à Jardin de Carthage</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>70DT</t>
+          <t>360000DT</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>À Louer</t>
+          <t>À Vendre</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Tunis</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>80</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr"/>
+          <t>RE/MAX Consultants vous propose à la vente un Très bel appartement S+1 à JARDINS DE CARTHAGE
+État neuf 
+Cet appartement sis au 4ème étage d'une Superficie : 82 m²
+Année de construction 2019
+Revêtement en marbre 
+Climatisation &amp; chauffage central 
+Pour plus d’informations, veuillez nous contactez.
+Mob/WhatsApp</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>+21621135500</t>
+        </is>
+      </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-04-02 23:13:03</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>https://www.tayara.tn/item/67e5f342ca3467b14e6e7884/Appartements/Tunis/Menzah/_22333312_louer_appartement_studio_meubl_location_par_jour_nuite_tunis_Ennasr_s1_s2_s3/</t>
+          <t>https://www.tayara.tn/item/67697fabf39faeaa98c0070b/Appartements/Tunis/Jardins_De_Carthage/A_Vendre_appartement_S1_Jardin_de_Carthage/</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>à louer appartement studio meublé s1 ennasr location par jour nuitée</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>70DT</t>
-        </is>
-      </c>
+          <t>A louer Complexe Immobilier à Usage Professionnel</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr"/>
       <c r="C7" t="inlineStr">
         <is>
           <t>À Louer</t>
@@ -713,40 +759,74 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Ben Arous</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>111</t>
+          <t>6455</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr"/>
+          <t>RE/MAX Consultants vous propose à la location un complexe immobilier polyvalent récemment construit, situé dans la zone industrielle et commerciale stratégique de Sidi Rzig Megrine, à proximité immédiate du port de Rades, et à seulement :
+10 minutes du centre-ville de Tunis
+15 minutes de l’aéroport Tunis-Carthage
+Détails de la répartition :
+Superficie totale : 6 455 m², répartie comme suit :
+Rez-de-chaussée (2 035 m²) :
+4 espaces modulables (magasins + bureaux) avec des surfaces de 245 m² à 667 m² et une hauteur sous plafond de 4,6 m.
+Les loyers varient selon les espaces : à partir de 150 DT HT/m²/an.
+1er étage (2 210 m²) :
+7 open spaces (bureaux) avec des surfaces de 221 m² à 422 m², répartis sur deux blocs indépendants :
+Bloc A : 4 open spaces.
+Bloc B : 3 open spaces.
+Chaque open space est équipé d’un bloc sanitaire et d’une kitchenette.
+Chaque bloc dispose d’une entrée indépendante et est équipé d’un ascenseur.
+Hauteur sous plafond : 3 m.
+2ème étage (2 210 m²) :
+Des espaces similaires à ceux du 1er étage, avec les mêmes surfaces (221 m² à 422 m²), organisés en deux blocs indépendants.
+Chaque open space dispose également d’un bloc sanitaire et d’une kitchenette, avec une hauteur sous plafond de 3 m.
+Caractéristiques générales :
+Hall de réception moderne avec ascenseurs pour faciliter l’accès aux étages.
+Espaces flexibles adaptés pour : showrooms, dépôts, magasins, bureaux ou regroupements d’activités (holdings).
+Modularité des espaces pour répondre aux besoins spécifiques des locataires, avec possibilité de location partielle ou totale.
+Bâtiment conforme aux normes de sécurité et à la législation tunisienne pour les activités réglementées.
+Points stratégiques :
+Situé dans une zone industrielle et commerciale clé à Sidi Rzig Megrine.
+Proximité directe avec le port de Rades, le centre-ville et l’aéroport Tunis-Carthage.
+Idéal pour les entreprises cherchant à combiner bureaux et espaces logistiques dans un cadre moderne.
+Prix sur demande – Visites disponibles sur rendez-vous.
+Pour plus d’informations, contactez-nous dès aujourd’hui et saisissez cette opportunité unique pour développer votre activité.
+Tél :
+E-mail: ahmed.mokrani@remax.com.tn</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>+21621135500</t>
+        </is>
+      </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-04-02 23:13:05</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>https://www.tayara.tn/item/67e5f327fd1c6385be3ef259/Locations%20de%20vacances/Tunis/El_Menzah_9/_louer_appartement_studio_meubl_s1_ennasr_location_par_jour_nuite_/</t>
+          <t>https://www.tayara.tn/item/677d16a3b7de28167ed04942/Magasins%2C%20Commerces%20et%20Locaux%20industriels/Ben_Arous/Mgrine/A_louer_Complexe_Immobilier_Usage_Professionnel/</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>location app s+2 haut standing a côté MG Elmourouj 6</t>
+          <t>A louer un bureau en H+2 à Ennasr</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>850DT</t>
+          <t>1600DT</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -756,40 +836,46 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Ariana</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>110</t>
+          <t>80</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr"/>
+          <t>Situé au 4ᵉ étage d'un immeuble à usage administratif et médical avec double ascenseur, ce bureau offre un cadre fonctionnel et bien agencé.
+Il se compose d’un hall d’accueil, d’une kitchenette, d’une salle d’eau, ainsi que de deux pièces, dont l’une dispose de sa propre salle d’eau.
+Une place de parking est également disponible au sous-sol.</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>+21628600606</t>
+        </is>
+      </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-04-02 23:03:07</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>https://www.tayara.tn/item/67e5f1f5ca3467b14e6e77e0/Appartements/Ben_Arous/El_Mourouj_6/location_app_s2_haut_standing_a_ct_MG_Elmourouj_6/</t>
+          <t>https://www.tayara.tn/item/67bdd395bf049e957eb01523/Bureaux%20et%20Plateaux/Ariana/Ennasr/A_louer_un_bureau_en_H2_Ennasr_/</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>appartement studio location par jour nuitée</t>
+          <t>S+1 Meublé Standing H-Sousse</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>60DT</t>
+          <t>800DT</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -799,40 +885,49 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Sousse</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>120</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr"/>
+          <t>Situé à El Bhaier H-Sousse , Standing S+1 Meublé au 2ème étage d'une superficie
+Habitable de 120 m² Dont une Terrasse privative de 60 m² .
+Composé d'un Salon, 1 Chambre , Salle d'eau avec cabine de douche , Kitchenette
+Chauffage Central et Climatisation .Prix demandé 800 dt .
+Infos et Visite Contactez L'immobilière du Lac H-Sousse au
+.</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>+21699904113</t>
+        </is>
+      </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-04-02 23:03:11</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>https://www.tayara.tn/item/67e5f187fd1c6385be3ef1a4/Locations%20de%20vacances/Tunis/Ain_Zaghouan_Sud/appartement_studio_location_par_jour_nuite_/</t>
+          <t>https://www.tayara.tn/item/66e2d62cb3c14db342cb94f8/Appartements/Sousse/Hammam_Sousse/_S1_Meubl_Standing_HSousse/</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>appartement meublé studio location par jour nuitée</t>
+          <t>Local 2 niveaux Khézama Sousse</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>60DT</t>
+          <t>4800DT</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -842,40 +937,48 @@
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Sousse</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>300</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr"/>
+          <t>Local de 2 niveaux ,Rez de chaussée( 165 m²) ,Mezzanine (135 m²) , donnant directement sur la Gp1 à khézama Sousse mis à la
+Location ,Local convient diverses activités commerciales tels que Banque ,Show-Room,
+Etc .Prix demandé 5000 dt plus pas de porte selon l'activité .
+Infos et Visite Contactez L'immobilière du Lac H-Sousse au
+.</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>+21699904113</t>
+        </is>
+      </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-04-02 23:03:13</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>https://www.tayara.tn/item/67e5f151ca3467b14e6e77a5/Locations%20de%20vacances/Tunis/Ain_Zaghouen/appartement_meubl_studio_location_par_jour_nuite_/</t>
+          <t>https://www.tayara.tn/item/67e143edca3467b14e6bcd5a/Magasins%2C%20Commerces%20et%20Locaux%20industriels/Sousse/Khzema/Local_2_niveaux_Khzama_Sousse/</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>appartement meublé studio location par jour nuitée</t>
+          <t>A louer un appartement en S+1 à Ennasr</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>60DT</t>
+          <t>800DT</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -885,126 +988,144 @@
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Ariana</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>65</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr"/>
+          <t>Cet appartement S+1 est situé au 4ème étage d’une résidence bien entretenue et sécurisée, dotée d’un double ascenseur. L’entrée s’ouvre sur un hall qui dessert, à droite, une cuisine aménagée, en face, un salon lumineux avec un balcon, et à gauche, une chambre équipée de placards avec et une salle de bain.
+L'appartement est équipé par un climatiseur split-system.</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>+21628600606</t>
+        </is>
+      </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-04-02 23:00:15</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>https://www.tayara.tn/item/67e5f13afd1c6385be3ef182/Locations%20de%20vacances/Tunis/L_Aouina/appartement_meubl_studio_location_par_jour_nuite_/</t>
+          <t>https://www.tayara.tn/item/67dd3471fd1c6385be3a078f/Appartements/Ariana/Cit_Ennasr_2/A_louer_un_appartement_en_S1_Ennasr_/</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>appartement meublé studio location par jour nuitée</t>
+          <t>A vendre un appartement en S+3 de 163m² à Ennasr</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>70DT</t>
+          <t>410000DT</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>À Louer</t>
+          <t>À Vendre</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Ariana</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>80</t>
+          <t>163</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr"/>
+          <t>cet appartement S+3 à Ennasr, situé au deuxième et dernier étage d'une résidence R+2, à proximité de la clinique Amilcar. Le hall d'entrée s'ouvre sur un salon lumineux complété par un balcon. La cuisine, entièrement aménagée et équipée, dispose d'un séchoir exploitable. Une salle d'eau pour les invités est également à disposition. L’espace nuit se compose d'une suite parentale avec sa propre salle d'eau avec douche, ainsi que deux chambres à coucher avec des dressings et dont une avec un balcon et se partagent une salle de bain commune. Une place de parking au sous-sol ainsi qu'un cellier complètent les prestations de cet appartement. L'appartement est équipé par des climatiseurs split-system et un chauffage central.</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>+21628600606</t>
+        </is>
+      </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-04-02 23:00:19</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>https://www.tayara.tn/item/67e5f125ca3467b14e6e778a/Locations%20de%20vacances/Tunis/L_Aouina/appartement_meubl_studio_location_par_jour_nuite_/</t>
+          <t>https://www.tayara.tn/item/67b9bbf5bf049e957ead68e3/Appartements/Ariana/Ennasr/A_vendre_un_appartement_en_S3_de_163m_Ennasr/</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>appartement meublé studio location par jour nuitée</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>70DT</t>
-        </is>
-      </c>
+          <t>Villa s+8 a vendre a Hammamet 22009303</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr"/>
       <c r="C13" t="inlineStr">
         <is>
-          <t>À Louer</t>
+          <t>À Vendre</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Nabeul</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>70</t>
+          <t>1720</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr"/>
+          <t>𝐀 𝐯𝐞𝐧𝐝𝐫𝐞 𝐮𝐧𝐞 𝐯𝐢𝐥𝐥𝐚 𝐒+𝟴 à 𝐇𝐚𝐦𝐦𝐚𝐦𝐞𝐭 𝐒𝐮𝐝 .
+✅ Salon spacieux, 6 suites avec terrasses, cuisine. 
+✅ 2 chambres et une salle d'eau pour les bonnes .
+✅ Jardin, piscine avec un espace barbecue 🌅
+✅ Vue magnifique sur le Golf Yasmine ⛳
+❤😍Prix 2 575 000 DT
+✅ Superficie : 1780 M² 🏡 
+✅ Référence : NA1711
+𝐓é𝐥 &amp; 𝐖𝐡𝐚𝐭𝐬𝐀𝐩𝐩 :☎️
+☎️ ✅ إطلالة رائعة على ملعب غولف ياسمين ⛳</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>+21622009303</t>
+        </is>
+      </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-04-02 23:00:22</t>
         </is>
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>https://www.tayara.tn/item/67e5f110ca3467b14e6e7782/Locations%20de%20vacances/Tunis/Lac_2/appartement_meubl_studio_location_par_jour_nuite_/</t>
+          <t>https://www.tayara.tn/item/67d96277fd1c6385be37e427/Maisons%20et%20Villas/Nabeul/Hammamet/Villa_s8_a_vendre_a_Hammamet_22009303/</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>📍ENNASR 2 : APPARTEMENT S+1 À LOUER</t>
+          <t>Appartement S+3 résidence El ONS I</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>800DT</t>
+          <t>850DT</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1014,28 +1135,40 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
+          <t>Ariana</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr"/>
+          <t>À louer bel appartement situé au 2ᵉ étage d’une résidence sécurisée et gardée R+2 , offrant un cadre de vie agréable et pratique.
+A proximité de toutes commodités, accessible depuis l’avenue Mustapha Mohsen ou l’avenue de l’UMA; Sokra.
+Il se compose d’un salon spacieux et lumineux avec un revêtement en marbre,
+de trois chambres ensoleillées et confortables, 
+d’une cuisine fonctionnelle et d’une salle de bain. 
+Chauffage central et climatiseurs installés.
+Une place de parking est également incluse.
+Loyer : 850 DT/mois, frais de syndic inclus.
+Tel:</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>+21698623492</t>
+        </is>
+      </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-04-02 23:00:24</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>https://www.tayara.tn/item/67e5f01cfd1c6385be3ef117/Appartements/Ariana/Cit_Ennasr_2/ENNASR_2_APPARTEMENT_S1_LOUER/</t>
+          <t>https://www.tayara.tn/item/67eda555ca3467b14e725eb3/Appartements/Ariana/Borj_Louzir/Appartement_S3_rsidence_El_ONS_I/</t>
         </is>
       </c>
     </row>
@@ -1057,7 +1190,7 @@
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Ariana</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
@@ -1067,13 +1200,21 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr"/>
+          <t>Cet appartement est situé à Ennasr , dans une résidence bien entretenue et gardée.
+L'entrée s'ouvre sur la partie jour, qui comprend un agréable salon lumineux avec un balcon, une cuisine aménagée , complétée par un séchoir, ainsi qu'une salle d'eau pour les invités.
+La partie nuit est composée de deux chambres à coucher, dont une avec des placards, qui se partagent une salle de bain.
+L'appartement est équipé d'un chauffage central.
+Une place de parking au sous-sol est également disponible</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>+21628600606</t>
+        </is>
+      </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-04-02 22:59:27</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
@@ -1085,12 +1226,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>A vendre un S+2 à SAHLOUL ghrabi 210,000 tnd</t>
+          <t>A vendre un appartement en S+2 de 120m² à Ennasr1</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>210000DT</t>
+          <t>230000DT</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1100,35 +1241,42 @@
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Ariana</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>100</t>
+          <t>120</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr"/>
+          <t>Cet appartement S+2 est situé à Ennasr1 et se trouve au quatrième étage d’une résidence bien entretenue et sécurisée, équipée d’un ascenseur.
+À l’entrée, un couloir dessert à droite un salon lumineux avec balcon, et à gauche une cuisine complété par avec un séchoir. La partie nuit se compose de deux chambres à coucher qui se partagent une salle de bain.
+L'appartement est équipé par un chauffage central.
+Un parking réservé aux résidents est également disponible.</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>+21628600606</t>
+        </is>
+      </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-04-02 22:59:29</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>https://www.tayara.tn/item/67e54512ca3467b14e6e0d1d/Appartements/Sousse/Hammam_Sousse/A_vendre_un_S2_SAHLOUL_ghrabi_210000_tnd_/</t>
+          <t>https://www.tayara.tn/item/67b849cdbf049e957eabe007/Appartements/Ariana/Ennasr/A_vendre_un_appartement_en_S2_de_120m_Ennasr1/</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>A LOUER VILLA LAC 2</t>
+          <t>À louer une villa avec piscine à Boumhal</t>
         </is>
       </c>
       <c r="B17" t="inlineStr"/>
@@ -1139,40 +1287,57 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Ben Arous</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>700</t>
+          <t>5000</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr"/>
+          <t>MAX Home , vous propose à la location une villa avec piscine de 5000m² terrain et bâti 300m² situé dans un quartier calme à boumhal 
+Caractéristiques : 
+- Salon spacieux 
+- Deux chambres ( une avec dressing) 
+- deux suites
+- cuisine bien équipée et bien aménagée 
+- salle d'eau avec douche 
+- climatiseurs 
+- chauffage central 
+- cheminée 
+- grand jardin 
+- piscine 
+Pour plus d'informations contacter le : 
+📞:</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>+21620002807</t>
+        </is>
+      </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-04-02 22:55:33</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>https://www.tayara.tn/item/67e5edacca3467b14e6e75f2/Maisons%20et%20Villas/Tunis/Lac_2/A_LOUER_VILLA_LAC_2/</t>
+          <t>https://www.tayara.tn/item/67a5d7a30b5f1b5530f3c2ec/Maisons%20et%20Villas/Ben_Arous/Boumhel/_louer_une_villa_avec_piscine_Boumhal_/</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>A LOUER APPAREMMENT</t>
+          <t>studio meublé a laouina</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>1200DT</t>
+          <t>90DT</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1182,165 +1347,189 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Tunis</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>57</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr"/>
+          <t>un joli studio richement meublé a laouina</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>+21627068288</t>
+        </is>
+      </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-04-02 23:37:36</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
         <is>
-          <t>https://www.tayara.tn/item/67e5ec8ffd1c6385be3eef69/Appartements/Tunis/L_Aouina/A_LOUER_APPAREMMENT_/</t>
+          <t>https://www.tayara.tn/item/67eda2f1ca3467b14e725c86/Appartements/Tunis/L_Aouina/studio_meubl_a_laouina_/</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>A louer S+2 HST au jardin de Carthage (non meublé)</t>
+          <t>Terrain viabilisé</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>1360DT</t>
+          <t>746200DT</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>À Louer</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
+          <t>Tunis</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
-      </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr"/>
+          <t>À vendre : terrain viabilisé situé à menzah 9 C, parfait pour une construction R+2.
+Il a 533 m² de superficie.
+Ce terrain se trouve dans un quartier calme et résidentiel, offrant un cadre de vie paisible tout en étant facilement accessible.
+ce terrain représente une opportunité idéale pour concrétiser votre projet immobilier.
+contactez-nous dès maintenant pour plus d'informations ou une visite GRATUITE sur le
+6 146</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>+21628518518</t>
+        </is>
+      </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-04-02 23:37:38</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
         <is>
-          <t>https://www.tayara.tn/item/67e5ea72ca3467b14e6e745f/Appartements/Tunis/Jardins_De_Carthage/A_louer_S2_HST_au_jardin_de_Carthage_non_meubl_/</t>
+          <t>https://www.tayara.tn/item/67ed769eca3467b14e723494/Terrains%20et%20Fermes/Tunis/El_Menzah_9/Terrain_viabilis/</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>200m2 à yassmin et hammamet</t>
+          <t>plage ezzahra kelibia</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>75DT</t>
+          <t>1200DT</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>À Louer</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Nabeul</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>80</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr"/>
+          <t>S+1 plage ezzahra kelibia disponible
+si vous etes intéressé contactez
+https://maps.app.goo.gl/bitTmvdEd3VfShC1A</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>+21698407199</t>
+        </is>
+      </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-04-02 23:37:41</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
         <is>
-          <t>https://www.tayara.tn/item/67e5ea62fd1c6385be3eee51/Terrains%20et%20Fermes/Nabeul/Hammamet/200m2_yassmin_et_hammamet/</t>
+          <t>https://www.tayara.tn/item/67eda05aca3467b14e725a4c/Locations%20de%20vacances/Nabeul/Klibia/plage_ezzahra_kelibia/</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>S+4 à El Manar II</t>
+          <t>App Khaznadar(S+2)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr"/>
       <c r="C21" t="inlineStr">
         <is>
-          <t>À Vendre</t>
+          <t>À Louer</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Tunis</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>140</t>
+          <t>100</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr"/>
+          <t>AL app Khaznadar S+2 (ssm,2cc,cuisine,Sb), terrasse ,séchoir, chauffage central,2iem étage ,compteurs steg, soned individuel,2placards, sécurisé par caméra de surveillance et parking de voiture..
+Entré privatifs pour 2apps,..</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>+21624991799</t>
+        </is>
+      </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-04-02 23:37:43</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
         <is>
-          <t>https://www.tayara.tn/item/67e5ea2bca3467b14e6e743c/Appartements/Tunis/El_Manar_2/S4_El_Manar_II/</t>
+          <t>https://www.tayara.tn/item/67aa5be986d5f7a45c172592/Appartements/Tunis/Le_Bardo/App_KhaznadarS2/</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Appartement s+3 meublé</t>
+          <t>Un S+2 à Monastir pour location estivale</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2500DT</t>
+          <t>80DT</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
@@ -1350,126 +1539,141 @@
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Monastir</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>106</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr"/>
+          <t>Un S+2 bien meublé situer au 1er étage d'un immeuble équipé par un ascenseur 
+à proximité de toute commodité</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>+21622477720</t>
+        </is>
+      </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-04-02 23:37:47</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
         <is>
-          <t>https://www.tayara.tn/item/67c57981119f0ab09bcec391/Appartements/Tunis/El_Menzah_9/Appartement_s3_meubl/</t>
+          <t>https://www.tayara.tn/item/67eda026ca3467b14e725a21/Appartements/Monastir/Monastir/Un_S2_Monastir_pour_location_estivale/</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>S+2 meublé en location à La Soukra</t>
+          <t>Maison à vendre</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>1300DT</t>
+          <t>340DT</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>À Louer</t>
+          <t>À Vendre</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Tunis</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>260</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr"/>
+          <t>Maison à vendre située à bhar lazrek s+4</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>+21623556614</t>
+        </is>
+      </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-04-02 23:37:49</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
         <is>
-          <t>https://www.tayara.tn/item/67e5409eca3467b14e6e09b3/Appartements/Ariana/La_Soukra/S2_meubl_en_location_La_Soukra/</t>
+          <t>https://www.tayara.tn/item/67eda006ca3467b14e725a08/Maisons%20et%20Villas/Tunis/La_Marsa/Maison_vendre_/</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Terrain viabilisé</t>
+          <t>maison 2 étage a oued elill</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>876000DT</t>
+          <t>160DT</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>À Vendre</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>La Manouba</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>100</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr"/>
+          <t>Afficher le numéro
+a vendre une belle maison s+2 bien équipe a gobeaa oued elill
+1mer et 2eme étage mitrage 100m</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>+21650365000</t>
+        </is>
+      </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-04-02 23:37:51</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
         <is>
-          <t>https://www.tayara.tn/item/66e4805567b755ba92257eb7/Terrains%20et%20Fermes/Ariana/Les_Jardins_El_Menzah_2/Terrain_viabilis/</t>
+          <t>https://www.tayara.tn/item/67ed9f80ca3467b14e72598e/Maisons%20et%20Villas/La_Manouba/Oued_Ellil/maison_2_tage_a_oued_elill/</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Villa individuelle</t>
+          <t>villa inachevée à boumhel</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>1700000DT</t>
+          <t>450DT</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -1479,40 +1683,48 @@
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Ben Arous</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>1000</t>
+          <t>393</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr"/>
+          <t>villa inachevée à boumhel ( reste finition ) . bon emplacement . sur route principale .accès facile via autoroute . titre bleu . 396 m2 . couverts 300m.
+RDC : grand salon + salle de séjour + s d'eau + cuisine .
+1 er étage ; suite parentale ( c à c + s d b + salon ) + 2 ch + s d b + salon .
+jardin + garage 
+tel :</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>+21621745691</t>
+        </is>
+      </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-04-02 23:37:55</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
         <is>
-          <t>https://www.tayara.tn/item/671244401cde9a414faa002a/Maisons%20et%20Villas/Ariana/Les_Jardins_El_Menzah_2/Villa_individuelle_/</t>
+          <t>https://www.tayara.tn/item/67ed9f46ca3467b14e725956/Maisons%20et%20Villas/Ben_Arous/Boumhel/villa_inacheve_boumhel/</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Un terrain viabilisé</t>
+          <t>Terrain a vendre a mrezga 22 009 303</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>430000DT</t>
+          <t>800DT</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1522,126 +1734,152 @@
       </c>
       <c r="D26" t="inlineStr">
         <is>
+          <t>Nabeul</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr"/>
+          <t>𝐀̀ 𝐯𝐞𝐧𝐝𝐫𝐞 𝐮𝐧 𝐭𝐞𝐫𝐫𝐚𝐢𝐧 𝐕𝐮𝐞 𝐬𝐮𝐫 𝐦𝐞𝐫 𝐬𝐢𝐭𝐮𝐞́ 𝐚̀ 𝐌𝐫𝐞𝐳𝐠𝐚 ,𝐇𝐚𝐦𝐦𝐚𝐦𝐞𝐭 🏡
+𝐋𝐨𝐜𝐚𝐥𝐢𝐬𝐚𝐭𝐢𝐨𝐧 : Ceinture Mrezga à 800m de hôpital Taher Maamouri 
+✅ Double façades
+✅ Superficie totale : 295m² 
+✔Prix m² : 800 dinars 
+✅ Réf : NA2627 
+Contact tel &amp; WhatsApp :</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>+21622009303</t>
+        </is>
+      </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-04-02 23:37:58</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>https://www.tayara.tn/item/6751ead2041535433b445d09/Terrains%20et%20Fermes/Ariana/Les_Jardins_El_Menzah_2/Un_terrain_viabilis/</t>
+          <t>https://www.tayara.tn/item/67ed0a17fd1c6385be423f98/Terrains%20et%20Fermes/Nabeul/Mrezga/Terrain_a_vendre_a_mrezga_22_009_303_/</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Appartement s+3 rénové</t>
+          <t>A louer appartements meublés par nuitée ou mensuel</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>455000DT</t>
+          <t>80DT</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>À Vendre</t>
+          <t>À Louer</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Tunis</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>150</t>
+          <t>100.0</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr"/>
+          <t>Location par nuitée, court séjour ou mensuelle (à partir de 80 DT par nuitée).
+Des appartements S+1 ou S+2 situés à Cité El WAHAT, LAOUINA et LA SOUKRA.
+- richement meublés
+- propres
+- proches de toutes les commodités (Monoprix, Aziza,....)
+Veuillez appeler le</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>+21629227144</t>
+        </is>
+      </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-04-02 23:38:01</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>https://www.tayara.tn/item/67124c681cde9a414faa0851/Appartements/Ariana/Les_Jardins_El_Menzah_2/Appartement_s3_rnov/</t>
+          <t>https://www.tayara.tn/item/66bf552e92d9e2cb542f889a/Appartements/Tunis/L_Aouina/A_louer_appartements_meubls_par_nuite_ou_mensuel/</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Duplex S+4, menzah 9 C</t>
+          <t>Deux lots de terrain (210 m2) للبيع زغوان</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>675000DT</t>
+          <t>40DT</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>À Vendre</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
+          <t>Zaghouan</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
           <t>N/A</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>230</t>
-        </is>
-      </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr"/>
+          <t>A vendre deux lots de terrain (210 m2) Zaghouan
+40 MD / Lot
+Accès sur le côté de l’usine PRISTINE ou bien du Bd de la terre.
+TEL :</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>+21697250054</t>
+        </is>
+      </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-04-02 23:38:03</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
         <is>
-          <t>https://www.tayara.tn/item/67c84a4593928ac5bc170d4a/Appartements/Tunis/El_Menzah_9/Duplex_S4_menzah_9_C/</t>
+          <t>https://www.tayara.tn/item/67ed9a32ca3467b14e725437/Terrains%20et%20Fermes/Zaghouan/Zaghouan/Deux_lots_de_terrain_210_m2_/</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Duplex S+4</t>
+          <t>s3 jardin del menzah 2</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2200DT</t>
+          <t>1150DT</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1651,93 +1889,116 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Ariana</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>220</t>
+          <t>150</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr"/>
+          <t>a louer un appartement s3 a jardin del menzah 2 au 
+2 eme étage sans ascenseur se compose d un grand salon salle a manger cuisine équipée salle d eau salle de bain et trios grand chambres a coucher
+pour plus dinfo contacter agence style immobilière</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>+21626608888</t>
+        </is>
+      </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-04-02 21:38:06</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
         <is>
-          <t>https://www.tayara.tn/item/674dc8c7041535433b4297fc/Appartements/Ariana/Les_Jardins_El_Menzah_1/Duplex_S4/</t>
+          <t>https://www.tayara.tn/item/67d82ae9ca3467b14e66b96f/Appartements/Ariana/Jardins_El_Menzah/s3_jardin_del_menzah_2/</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Appartement s+2</t>
+          <t>S+1 Appartement Semi Meublé à Chotrana</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>265000DT</t>
+          <t>1200DT</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>À Vendre</t>
+          <t>À Louer</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Ariana</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>90</t>
+          <t>62</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr"/>
+          <t>🏡 À Louer : Superbe S+1 Neuf à la Soukra - Chotrana 1 🏡
+📍 Emplacement idéal : À proximité de l’aéroport Tunis Carthage et de toutes commodités, Carrefour Market et l’Université Ibn Khaldoun (UIK).
+✨ Un cadre de vie calme &amp; luxueux :
+✅ Résidence sécurisée avec gardien et caméras de surveillance 🔒
+✅ Place de parking en sous-sol 🚗
+🛋️ Un appartement moderne avec une orientation Sud-est ☀️ et bien équipé :
+🛏️ Chambre avec dressing et accès à un grand balcon 🌿
+🛋️ Salon lumineux avec ouverture sur le balcon 
+🍽️ Cuisine entièrement équipée (plaque, hotte, four, réfrigérateur, machine à laver) 👌
+❄️ Climatiseurs installés pour votre confort
+🛁 Salle de bain moderne
+💰 Loyer : 1200 TND/mois – Direct propriétaire, pas de frais d’agence !
+📞 Contactez-moi en privé pour une visite !
+13704</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>+21625113704</t>
+        </is>
+      </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-04-02 21:38:09</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
         <is>
-          <t>https://www.tayara.tn/item/67c59789119f0ab09bced9f2/Appartements/Ariana/Les_Jardins_El_Menzah_1/Appartement_s2_/</t>
+          <t>https://www.tayara.tn/item/67ed9848ca3467b14e72525f/Appartements/Ariana/Chotrana/S1_Appartement_Semi_Meubl_Chotrana/</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Appartement s+3</t>
+          <t>s4 sokra bon prix</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>365000DT</t>
+          <t>1150DT</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>À Vendre</t>
+          <t>À Louer</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Ariana</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
@@ -1747,18 +2008,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr"/>
+          <t>a louer un appartement s4 a sokra pas loin de monoprix au 4 eme étage avec ascenseurs se compose d un grand salon avec balcon quatre chambres a coucher salle d eau salle de bain grand cuisine et place de parking sous sol pour plus dinfo contacter agence style immobilière</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>+21628832222</t>
+        </is>
+      </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>2025-04-02 21:38:11</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
         <is>
-          <t>https://www.tayara.tn/item/67c5964c93928ac5bc15a1c5/Appartements/Ariana/Les_Jardins_El_Menzah_1/Appartement_s3_/</t>
+          <t>https://www.tayara.tn/item/67d40992ca3467b14e640602/Appartements/Ariana/La_Soukra/s4_sokra_bon_prix_/</t>
         </is>
       </c>
     </row>
